--- a/LW7/ЛР7 «Кейсы».xlsx
+++ b/LW7/ЛР7 «Кейсы».xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\source\repos\Labs\LW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Наталия\source\repos\LabsTest\Labs\LW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E0C55C-6A12-42EB-BE79-F71E6D4E4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E8F4E3-F4A9-4748-9052-7595227F6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26520" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Название кейса</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Xml-файл с именами, фамилиями, отчествами.</t>
   </si>
   <si>
-    <t>Xml-файл, в котором должен находится номера телефона</t>
-  </si>
-  <si>
     <t>Проверяется форма ввода ФИО</t>
   </si>
   <si>
@@ -106,6 +103,20 @@
   </si>
   <si>
     <t>Запись либо удалена, либо нет, т.е. отработал стандартный вывод с ошибкой формата записи аргументов, exception'ов — нет.</t>
+  </si>
+  <si>
+    <t>Корректность проверки на формат записи адреса</t>
+  </si>
+  <si>
+    <t>Xml-файл, в котором должены находится номера телефонов
+Структура xml:
+&lt;?xml version="1.0" encoding="utf-8" ?&gt;
+&lt;testdata&gt;
+ &lt;testcase&gt;
+  &lt;phoneNumber&gt;Номер телефона&lt;/phoneNumber&gt;
+ &lt;/testcase&gt;
+&lt;/testdata&gt;
+Данный файл находится рядом в папке Debug/net8.0</t>
   </si>
 </sst>
 </file>
@@ -490,20 +501,20 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="33.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="33.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="47.5546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="234" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -528,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -537,24 +548,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -565,61 +576,61 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
